--- a/network2_node_input.xlsx
+++ b/network2_node_input.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5.3625999999999996</v>
+        <v>5.3620000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
